--- a/doc/STORY CARDS PI 2BD.xlsx
+++ b/doc/STORY CARDS PI 2BD.xlsx
@@ -12,7 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="CAD.CONTAS" sheetId="1" r:id="rId1"/>
+    <sheet name="CAD.CLIENTES" sheetId="2" r:id="rId2"/>
+    <sheet name="CAD.USUÁRIO" sheetId="3" r:id="rId3"/>
+    <sheet name="CAD. EXC.EDIT.CONTAS" sheetId="4" r:id="rId4"/>
+    <sheet name="TELA DE LOGIN" sheetId="5" r:id="rId5"/>
+    <sheet name="TELA DE RESET" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>TELAS DE CADASTRO DE DADOS DAS CONTAS DE CONSUMO DE UTILIDADES</t>
   </si>
   <si>
-    <t>1 - O operador pode na tela principal clicar no ícone correspondente ao software de cadastro de contas .</t>
-  </si>
-  <si>
     <t>2 - Ao carregar o programa o operador e usuário executa o login de acesso as telas de cadastro .</t>
   </si>
   <si>
@@ -102,13 +104,127 @@
   </si>
   <si>
     <t>11 - O operador tem acesso a uma tela de histórico de consumo de utilidades do cliente selecionado (água,energia elétrica e gás natural).</t>
+  </si>
+  <si>
+    <t>TELA DE CADASTRO DE CLIENTES (FÍSICA OU EMPRESA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - O operador tem a opção de "CADASTRAR CLIENTE" na parte inferior da tela de cadastro de contas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - O operador preenche os dados do cliente em seus respectivos campos.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - O operador e usuário tem no final da tela a opção de "SALVAR" ou "EXCLUIR" dados do sistema.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - O cliente é inserido no sistema de cadastro ,assim como seus dados podem ser filtrados.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Após os dados estiverem salvos a tela é resetada e fica disponível para o próximo registro.   </t>
+  </si>
+  <si>
+    <t>TELA DE CADASTRO DE USUÁRIO (OPERADOR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - O operador gerente seleciona a opção de cadastrar um operador na tela de cadastro de operador de contas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - O operdor gerente faz sua opção como administrador e preenche os campos com os dados do operador.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - O operador gerente seleciona a opção de "SALVAR" ou "EXCLUIR"dados do operador.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Operador incluido no sistema. </t>
+  </si>
+  <si>
+    <t>TELA DE EXCLUSÃO OU EDIÇÃO DE CONTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - O operador tem a opção de selecionar "NOVO CADASTRO" </t>
+  </si>
+  <si>
+    <t>1.1 - O operador é direcionado para a tela de cadastro</t>
+  </si>
+  <si>
+    <t>2 - Opção alternativa (exclusão de cadastro) :</t>
+  </si>
+  <si>
+    <t>2.1 - O operador realiza uma pesquisa (nome do cliente,data de cadastro atualizado) para localizar respectiva conta.</t>
+  </si>
+  <si>
+    <t>2.2 - O operador pode selecionar a opção de "EXCLUIR CONTA"</t>
+  </si>
+  <si>
+    <t>2.3 - Operador seleciona a opção de "CONFIRMAR A EXCLUSÃO" atuando o botão "OK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - O operador recebe um aviso de que a conta foi excluida com sucesso.  </t>
+  </si>
+  <si>
+    <t>4 - Opção alternativa (edição de um cadastro) :</t>
+  </si>
+  <si>
+    <t>4.1 - O operador realiza uma pesquisa (nome do cliente,data de cadastro atualizado) para localizar respectiva conta.</t>
+  </si>
+  <si>
+    <t>4.2 - O operador pode selecionar a opção de "EDITAR CONTA"</t>
+  </si>
+  <si>
+    <t>4.3 - Operador seleciona a opção de "CONFIRMAR A EDISÃO" atuando o botão "OK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - O operador recebe um aviso de que a conta foi editada com sucesso.  </t>
+  </si>
+  <si>
+    <t>TELA DE LOGIN PARA ACESSAR OS CADASTROS (OPERADOR)</t>
+  </si>
+  <si>
+    <t>3.4 - Neste link o mesmo é direcionado para tela de reset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TELA DE RESET DE SENHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 - O operador é direcionado para a tela de login. </t>
+  </si>
+  <si>
+    <t>1 - O operador digita a nova senha e precisa digitá-la novamente para confirmar ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - O operador pode selecionar a opção de "SALVAR NOVA SENHA";  </t>
+  </si>
+  <si>
+    <t>1 - O operador coloca o email e a senha nos respectivos campos ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Após selecionar a opção "ENTRAR" o mesmo é direcionado para a tela de cadastro de contas;  </t>
+  </si>
+  <si>
+    <t>3 - Condição alternativa  (situação : o operador esqueceu a senha) ;</t>
+  </si>
+  <si>
+    <t>3.1 - O operador seleciona a opção "esqueci minha senha";</t>
+  </si>
+  <si>
+    <t>3.2 - O operador digita o seu email para receber o reset de senha;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 -É enviado um email com link para reset da senha; </t>
+  </si>
+  <si>
+    <t>1 - O operador seleciona o software de cadastro de contas .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +234,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +560,7 @@
   <dimension ref="A7:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,131 +581,418 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>